--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed4/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.290000000000003</v>
+        <v>-8.072999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.899999999999999</v>
+        <v>5.478999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.875999999999999</v>
+        <v>-7.992</v>
       </c>
     </row>
     <row r="10">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.202</v>
+        <v>5.137</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.896000000000001</v>
+        <v>6.920999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.510000000000002</v>
+        <v>-7.993</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.023999999999999</v>
+        <v>-6.837000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.262</v>
+        <v>-7.558000000000002</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.42</v>
+        <v>5.752000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.348000000000001</v>
+        <v>-7.564</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.225999999999999</v>
+        <v>-7.877999999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.892999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.888</v>
+        <v>-7.979000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.714</v>
+        <v>-7.486</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.616</v>
       </c>
     </row>
     <row r="68">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.75</v>
+        <v>5.843999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.544999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.8</v>
+        <v>-7.938999999999998</v>
       </c>
     </row>
     <row r="81">
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.098000000000001</v>
+        <v>5.456999999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.359999999999999</v>
+        <v>-8.253</v>
       </c>
     </row>
     <row r="100">
